--- a/Android/ExcelData/MaxInfo.xlsx
+++ b/Android/ExcelData/MaxInfo.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Design\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9445FB4-BD41-4CEA-8187-632FB372DF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C349B94-9206-4B1C-94EE-CF1558EEE41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3165" yWindow="1665" windowWidth="30810" windowHeight="18900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
-    <sheet name="!maxInfo" sheetId="1" r:id="rId2"/>
+    <sheet name="maxInfo" sheetId="1" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM:GOODS_TYPE:NONE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -94,14 +90,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>goods_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#goods_type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>REWARD_TYPE</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -136,6 +124,22 @@
   </si>
   <si>
     <t>1 금화(게임내 사용되는 재화)</t>
+  </si>
+  <si>
+    <t>reward_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#reward_type</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:REWARD_TYPE:NONE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max_Bound_Info_Data</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1030,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DC3D57-CD43-45D7-9AFE-925F50181D32}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1042,27 +1046,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1438,10 +1442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1451,6 +1455,11 @@
     <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -1464,24 +1473,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1490,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>9999999999</v>
@@ -1502,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="7">
         <v>999999</v>
@@ -1514,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6">
         <v>50</v>
@@ -1526,7 +1535,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6">
         <v>10</v>
@@ -1538,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>

--- a/Android/ExcelData/MaxInfo.xlsx
+++ b/Android/ExcelData/MaxInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C349B94-9206-4B1C-94EE-CF1558EEE41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DEDA3C-870E-4876-84D8-EAEB97D8DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3015" yWindow="885" windowWidth="27975" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -134,11 +134,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM:REWARD_TYPE:NONE</t>
+    <t>Max_Bound_Info_Data</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Max_Bound_Info_Data</t>
+    <t>key_1:ENUM:REWARD_TYPE:NONE</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1445,7 +1445,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1457,7 +1457,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1473,7 +1473,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>3</v>

--- a/Android/ExcelData/MaxInfo.xlsx
+++ b/Android/ExcelData/MaxInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DEDA3C-870E-4876-84D8-EAEB97D8DECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8E7BB-D59D-4332-9135-049DC3917DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="885" windowWidth="27975" windowHeight="19770" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39180" yWindow="780" windowWidth="37215" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <rPr>
@@ -140,6 +140,9 @@
   <si>
     <t>key_1:ENUM:REWARD_TYPE:NONE</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>106 보스전 입장 횟수</t>
   </si>
 </sst>
 </file>
@@ -418,7 +421,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -430,6 +432,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -453,18 +456,24 @@
       <sheetData sheetId="18" refreshError="1"/>
       <sheetData sheetId="19" refreshError="1"/>
       <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ITEM_TYPE_V2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22">
         <row r="1">
           <cell r="A1" t="str">
-            <v>ITEM_TYPE_V2</v>
+            <v>GOODS_TYPE</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="23">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
           </cell>
         </row>
       </sheetData>
@@ -475,21 +484,31 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="25">
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29">
+      <sheetData sheetId="27">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
           </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
           <cell r="B4">
             <v>0</v>
           </cell>
@@ -664,13 +683,13 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>TICKET_DUNGEON</v>
+            <v>BOSS_DUNGEON_TICKET</v>
           </cell>
           <cell r="B20">
             <v>106</v>
           </cell>
           <cell r="C20" t="str">
-            <v>106 던전 입장 티켓</v>
+            <v>106 보스전 입장 횟수</v>
           </cell>
         </row>
         <row r="21">
@@ -762,6 +781,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
@@ -1034,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DC3D57-CD43-45D7-9AFE-925F50181D32}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1296,7 +1316,7 @@
     <row r="20" spans="1:3">
       <c r="A20" s="13" t="str">
         <f>'[1]@reward_type'!A20</f>
-        <v>TICKET_DUNGEON</v>
+        <v>BOSS_DUNGEON_TICKET</v>
       </c>
       <c r="B20" s="13">
         <f>'[1]@reward_type'!B20</f>
@@ -1304,7 +1324,7 @@
       </c>
       <c r="C20" s="13" t="str">
         <f>'[1]@reward_type'!C20</f>
-        <v>106 던전 입장 티켓</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1442,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1553,6 +1573,18 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6">
+        <f>INDEX('!참조_ENUM'!$B$4:$B$100,MATCH(B10,'!참조_ENUM'!$C$4:$C$100,0))</f>
+        <v>106</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1563,7 +1595,7 @@
           <x14:formula1>
             <xm:f>'!참조_ENUM'!$C$4:$C$100</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B9</xm:sqref>
+          <xm:sqref>B5:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Android/ExcelData/MaxInfo.xlsx
+++ b/Android/ExcelData/MaxInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C8E7BB-D59D-4332-9135-049DC3917DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2267C-51FE-4AE9-BB4B-3113903148FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="780" windowWidth="37215" windowHeight="18660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -417,6 +417,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -435,80 +436,40 @@
       <sheetName val="@attribute_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>ITEM_TYPE_V2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="22">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>GOODS_TYPE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="23">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29">
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
           </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="24">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="27">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="28">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>REWARD_TYPE</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
           <cell r="B4">
             <v>0</v>
           </cell>
@@ -628,162 +589,63 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>EXP_POTION_P</v>
+            <v>BOSS_DUNGEON_TICKET</v>
           </cell>
           <cell r="B15">
-            <v>101</v>
+            <v>106</v>
           </cell>
           <cell r="C15" t="str">
-            <v>101 플레이어 경험치 물약</v>
+            <v>106 보스전 입장 횟수</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>EXP_POTION_C</v>
+            <v>PIECE_EQUIPMENT</v>
           </cell>
           <cell r="B16">
-            <v>102</v>
+            <v>111</v>
           </cell>
           <cell r="C16" t="str">
-            <v>102 캐릭터 경험치 물약</v>
+            <v>111 장비 조각</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>STA_POTION</v>
+            <v>PIECE_CHARACTER</v>
           </cell>
           <cell r="B17">
-            <v>103</v>
+            <v>112</v>
           </cell>
           <cell r="C17" t="str">
-            <v>103 스테미나 회복 물약</v>
+            <v>112 캐릭터 조각</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>FAVORITE_ITEM</v>
+            <v>PIECE_ITEM</v>
           </cell>
           <cell r="B18">
-            <v>104</v>
+            <v>113</v>
           </cell>
           <cell r="C18" t="str">
-            <v>104 호감도 아이템</v>
+            <v>113 아이템 조각</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>STAGE_SKIP</v>
+            <v>ITEM</v>
           </cell>
           <cell r="B19">
-            <v>105</v>
+            <v>1000</v>
           </cell>
           <cell r="C19" t="str">
-            <v>105 스테이지 스킵 티켓</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>BOSS_DUNGEON_TICKET</v>
-          </cell>
-          <cell r="B20">
-            <v>106</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>106 보스전 입장 횟수</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>EQ_GROWUP</v>
-          </cell>
-          <cell r="B21">
-            <v>107</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>107 정련석(장비 성장)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>TICKET_REWARD_SELECT</v>
-          </cell>
-          <cell r="B22">
-            <v>108</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>109 보상 선택 티켓(1개를 선택 획득)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>TICKET_REWARD_RANDOM</v>
-          </cell>
-          <cell r="B23">
-            <v>109</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>TICKET_REWARD_ALL</v>
-          </cell>
-          <cell r="B24">
-            <v>110</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>110 보상 패키지 티켓(모든 보상 획득)</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>PIECE_EQUIPMENT</v>
-          </cell>
-          <cell r="B25">
-            <v>111</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>111 장비 조각</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>PIECE_CHARACTER</v>
-          </cell>
-          <cell r="B26">
-            <v>112</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>112 캐릭터 조각</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>PIECE_ITEM</v>
-          </cell>
-          <cell r="B27">
-            <v>113</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>113 아이템 조각</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>EXP_SKILL</v>
-          </cell>
-          <cell r="B28">
-            <v>114</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>114 스킬 경험치 아이템</v>
+            <v>1000 아이템</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1052,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DC3D57-CD43-45D7-9AFE-925F50181D32}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1246,213 +1108,87 @@
     <row r="15" spans="1:3">
       <c r="A15" s="13" t="str">
         <f>'[1]@reward_type'!A15</f>
-        <v>EXP_POTION_P</v>
+        <v>BOSS_DUNGEON_TICKET</v>
       </c>
       <c r="B15" s="13">
         <f>'[1]@reward_type'!B15</f>
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C15" s="13" t="str">
         <f>'[1]@reward_type'!C15</f>
-        <v>101 플레이어 경험치 물약</v>
+        <v>106 보스전 입장 횟수</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="13" t="str">
         <f>'[1]@reward_type'!A16</f>
-        <v>EXP_POTION_C</v>
+        <v>PIECE_EQUIPMENT</v>
       </c>
       <c r="B16" s="13">
         <f>'[1]@reward_type'!B16</f>
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C16" s="13" t="str">
         <f>'[1]@reward_type'!C16</f>
-        <v>102 캐릭터 경험치 물약</v>
+        <v>111 장비 조각</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="13" t="str">
         <f>'[1]@reward_type'!A17</f>
-        <v>STA_POTION</v>
+        <v>PIECE_CHARACTER</v>
       </c>
       <c r="B17" s="13">
         <f>'[1]@reward_type'!B17</f>
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C17" s="13" t="str">
         <f>'[1]@reward_type'!C17</f>
-        <v>103 스테미나 회복 물약</v>
+        <v>112 캐릭터 조각</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="13" t="str">
         <f>'[1]@reward_type'!A18</f>
-        <v>FAVORITE_ITEM</v>
+        <v>PIECE_ITEM</v>
       </c>
       <c r="B18" s="13">
         <f>'[1]@reward_type'!B18</f>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C18" s="13" t="str">
         <f>'[1]@reward_type'!C18</f>
-        <v>104 호감도 아이템</v>
+        <v>113 아이템 조각</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="13" t="str">
         <f>'[1]@reward_type'!A19</f>
-        <v>STAGE_SKIP</v>
+        <v>ITEM</v>
       </c>
       <c r="B19" s="13">
         <f>'[1]@reward_type'!B19</f>
-        <v>105</v>
+        <v>1000</v>
       </c>
       <c r="C19" s="13" t="str">
         <f>'[1]@reward_type'!C19</f>
-        <v>105 스테이지 스킵 티켓</v>
+        <v>1000 아이템</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="13" t="str">
-        <f>'[1]@reward_type'!A20</f>
-        <v>BOSS_DUNGEON_TICKET</v>
-      </c>
-      <c r="B20" s="13">
-        <f>'[1]@reward_type'!B20</f>
-        <v>106</v>
-      </c>
-      <c r="C20" s="13" t="str">
-        <f>'[1]@reward_type'!C20</f>
-        <v>106 보스전 입장 횟수</v>
-      </c>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="13" t="str">
-        <f>'[1]@reward_type'!A21</f>
-        <v>EQ_GROWUP</v>
-      </c>
-      <c r="B21" s="13">
-        <f>'[1]@reward_type'!B21</f>
-        <v>107</v>
-      </c>
-      <c r="C21" s="13" t="str">
-        <f>'[1]@reward_type'!C21</f>
-        <v>107 정련석(장비 성장)</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="13" t="str">
-        <f>'[1]@reward_type'!A22</f>
-        <v>TICKET_REWARD_SELECT</v>
-      </c>
-      <c r="B22" s="13">
-        <f>'[1]@reward_type'!B22</f>
-        <v>108</v>
-      </c>
-      <c r="C22" s="13" t="str">
-        <f>'[1]@reward_type'!C22</f>
-        <v>109 보상 선택 티켓(1개를 선택 획득)</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="13" t="str">
-        <f>'[1]@reward_type'!A23</f>
-        <v>TICKET_REWARD_RANDOM</v>
-      </c>
-      <c r="B23" s="13">
-        <f>'[1]@reward_type'!B23</f>
-        <v>109</v>
-      </c>
-      <c r="C23" s="13" t="str">
-        <f>'[1]@reward_type'!C23</f>
-        <v>100 보상 랜덤 티켓(1개를 확률 획득)</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="13" t="str">
-        <f>'[1]@reward_type'!A24</f>
-        <v>TICKET_REWARD_ALL</v>
-      </c>
-      <c r="B24" s="13">
-        <f>'[1]@reward_type'!B24</f>
-        <v>110</v>
-      </c>
-      <c r="C24" s="13" t="str">
-        <f>'[1]@reward_type'!C24</f>
-        <v>110 보상 패키지 티켓(모든 보상 획득)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="13" t="str">
-        <f>'[1]@reward_type'!A25</f>
-        <v>PIECE_EQUIPMENT</v>
-      </c>
-      <c r="B25" s="13">
-        <f>'[1]@reward_type'!B25</f>
-        <v>111</v>
-      </c>
-      <c r="C25" s="13" t="str">
-        <f>'[1]@reward_type'!C25</f>
-        <v>111 장비 조각</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="13" t="str">
-        <f>'[1]@reward_type'!A26</f>
-        <v>PIECE_CHARACTER</v>
-      </c>
-      <c r="B26" s="13">
-        <f>'[1]@reward_type'!B26</f>
-        <v>112</v>
-      </c>
-      <c r="C26" s="13" t="str">
-        <f>'[1]@reward_type'!C26</f>
-        <v>112 캐릭터 조각</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="13" t="str">
-        <f>'[1]@reward_type'!A27</f>
-        <v>PIECE_ITEM</v>
-      </c>
-      <c r="B27" s="13">
-        <f>'[1]@reward_type'!B27</f>
-        <v>113</v>
-      </c>
-      <c r="C27" s="13" t="str">
-        <f>'[1]@reward_type'!C27</f>
-        <v>113 아이템 조각</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="13" t="str">
-        <f>'[1]@reward_type'!A28</f>
-        <v>EXP_SKILL</v>
-      </c>
-      <c r="B28" s="13">
-        <f>'[1]@reward_type'!B28</f>
-        <v>114</v>
-      </c>
-      <c r="C28" s="13" t="str">
-        <f>'[1]@reward_type'!C28</f>
-        <v>114 스킬 경험치 아이템</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -1464,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1515,7 +1251,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$100,MATCH(B5,'!참조_ENUM'!$C$4:$C$100,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$91,MATCH(B5,'!참조_ENUM'!$C$4:$C$91,0))</f>
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -1527,7 +1263,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$100,MATCH(B6,'!참조_ENUM'!$C$4:$C$100,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$91,MATCH(B6,'!참조_ENUM'!$C$4:$C$91,0))</f>
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -1539,7 +1275,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="6">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$100,MATCH(B7,'!참조_ENUM'!$C$4:$C$100,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$91,MATCH(B7,'!참조_ENUM'!$C$4:$C$91,0))</f>
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -1551,7 +1287,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="6">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$100,MATCH(B8,'!참조_ENUM'!$C$4:$C$100,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$91,MATCH(B8,'!참조_ENUM'!$C$4:$C$91,0))</f>
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -1563,7 +1299,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="6">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$100,MATCH(B9,'!참조_ENUM'!$C$4:$C$100,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$91,MATCH(B9,'!참조_ENUM'!$C$4:$C$91,0))</f>
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -1575,7 +1311,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6">
-        <f>INDEX('!참조_ENUM'!$B$4:$B$100,MATCH(B10,'!참조_ENUM'!$C$4:$C$100,0))</f>
+        <f>INDEX('!참조_ENUM'!$B$4:$B$91,MATCH(B10,'!참조_ENUM'!$C$4:$C$91,0))</f>
         <v>106</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -1593,7 +1329,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{13F62DFA-53E9-4F09-B062-9530C391BAD0}">
           <x14:formula1>
-            <xm:f>'!참조_ENUM'!$C$4:$C$100</xm:f>
+            <xm:f>'!참조_ENUM'!$C$4:$C$91</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B10</xm:sqref>
         </x14:dataValidation>

--- a/Android/ExcelData/MaxInfo.xlsx
+++ b/Android/ExcelData/MaxInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B2267C-51FE-4AE9-BB4B-3113903148FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9E719-EFA4-4236-B3F8-BB9D70A69239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39525" yWindow="1125" windowWidth="36135" windowHeight="19395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -434,9 +434,20 @@
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
       <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
+      <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@reward"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -457,15 +468,44 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
+      <sheetData sheetId="21">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>LIMIT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
+      <sheetData sheetId="23">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>type</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
+      <sheetData sheetId="27">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="28">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="29">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>REWARD_TYPE</v>
+          </cell>
+        </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>NONE</v>
@@ -646,6 +686,11 @@
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -916,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DC3D57-CD43-45D7-9AFE-925F50181D32}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1200,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1294,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1306,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/Android/ExcelData/MaxInfo.xlsx
+++ b/Android/ExcelData/MaxInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9E719-EFA4-4236-B3F8-BB9D70A69239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B032AF7-C53D-4462-8B97-A341EF5DCD3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39525" yWindow="1125" windowWidth="36135" windowHeight="19395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38790" yWindow="390" windowWidth="36135" windowHeight="19395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="!참조_ENUM" sheetId="2" r:id="rId1"/>
@@ -458,8 +458,20 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="11">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -476,30 +488,12 @@
         </row>
       </sheetData>
       <sheetData sheetId="22"/>
-      <sheetData sheetId="23">
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>type</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
       <sheetData sheetId="26"/>
-      <sheetData sheetId="27">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="28">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
       <sheetData sheetId="29">
         <row r="1">
           <cell r="A1" t="str">
@@ -684,7 +678,13 @@
         </row>
       </sheetData>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
@@ -1246,7 +1246,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1339,7 +1339,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1351,7 +1351,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
